--- a/SPPSApi/Doc/Template/FS0308.xlsx
+++ b/SPPSApi/Doc/Template/FS0308.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPPS\SPPS_API\SPPSApi\Doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6B5D01-449C-4378-86D1-12E04F12E0D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F2189F-7FB4-4EB9-963A-33A59A38EBE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C649836B-5C32-431A-BEED-816C03FEA17E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -119,10 +119,6 @@
   </si>
   <si>
     <t>织入原单位完了</t>
-  </si>
-  <si>
-    <t>厂家编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>品番</t>
@@ -157,13 +153,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收货方</t>
-  </si>
-  <si>
-    <t>所属原单位</t>
-  </si>
-  <si>
-    <t>事业体</t>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -538,115 +533,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A6AF76-8443-4F2D-B9E7-73F354456E43}">
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="32" max="32" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +649,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:R1048576</xm:sqref>
+          <xm:sqref>S2:S1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -683,7 +672,7 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,7 +680,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/SPPSApi/Doc/Template/FS0308.xlsx
+++ b/SPPSApi/Doc/Template/FS0308.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPPS\SPPS_API\SPPSApi\Doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F2189F-7FB4-4EB9-963A-33A59A38EBE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57326C6-DF44-4B20-97B9-BF24BCF866A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C649836B-5C32-431A-BEED-816C03FEA17E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -158,6 +158,10 @@
   </si>
   <si>
     <t>进度完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A6AF76-8443-4F2D-B9E7-73F354456E43}">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -546,7 +550,7 @@
     <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -595,46 +599,49 @@
       <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -649,7 +656,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>S2:S1048576</xm:sqref>
+          <xm:sqref>T2:T1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/SPPSApi/Doc/Template/FS0308.xlsx
+++ b/SPPSApi/Doc/Template/FS0308.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPPS\SPPS_API\SPPSApi\Doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57326C6-DF44-4B20-97B9-BF24BCF866A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4673E2A-372B-47FF-925C-B651D0108613}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C649836B-5C32-431A-BEED-816C03FEA17E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装事业体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属原单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A6AF76-8443-4F2D-B9E7-73F354456E43}">
-  <dimension ref="A1:AE1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -550,7 +562,7 @@
     <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -643,6 +655,15 @@
       </c>
       <c r="AE1" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
